--- a/REGULAR/OJT/NEW DONE/RODRIQUEZ, IGNACIO.xlsx
+++ b/REGULAR/OJT/NEW DONE/RODRIQUEZ, IGNACIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EF7F42-9C5B-4A10-81FE-4B82DA3CBB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87208E29-92A4-4446-80FA-3C42EA3B5AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="180">
   <si>
     <t>PERIOD</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>5/2,4,5/2023</t>
+  </si>
+  <si>
+    <t>6/23,26/2023</t>
   </si>
 </sst>
 </file>
@@ -1623,9 +1626,9 @@
   <dimension ref="A2:K480"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A423" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C437" sqref="C437"/>
+      <pane ySplit="2160" topLeftCell="A424" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K438" sqref="K438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,7 +1787,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>248.97899999999998</v>
+        <v>243.22899999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1794,7 +1797,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>245.45799999999997</v>
+        <v>235.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10904,11 +10907,11 @@
         <v>75</v>
       </c>
       <c r="C432" s="13"/>
-      <c r="D432" s="39"/>
+      <c r="D432" s="20">
+        <v>2</v>
+      </c>
       <c r="E432" s="9"/>
-      <c r="F432" s="20">
-        <v>2</v>
-      </c>
+      <c r="F432" s="20"/>
       <c r="G432" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10926,18 +10929,18 @@
         <v>174</v>
       </c>
       <c r="C433" s="13"/>
-      <c r="D433" s="39"/>
+      <c r="D433" s="20"/>
       <c r="E433" s="9"/>
       <c r="F433" s="20"/>
       <c r="G433" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H433" s="39"/>
+      <c r="H433" s="39">
+        <v>6</v>
+      </c>
       <c r="I433" s="9"/>
-      <c r="J433" s="11">
-        <v>6</v>
-      </c>
+      <c r="J433" s="11"/>
       <c r="K433" s="20" t="s">
         <v>175</v>
       </c>
@@ -10948,11 +10951,11 @@
         <v>46</v>
       </c>
       <c r="C434" s="13"/>
-      <c r="D434" s="39"/>
+      <c r="D434" s="20">
+        <v>3</v>
+      </c>
       <c r="E434" s="9"/>
-      <c r="F434" s="20">
-        <v>3</v>
-      </c>
+      <c r="F434" s="20"/>
       <c r="G434" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10970,11 +10973,11 @@
         <v>75</v>
       </c>
       <c r="C435" s="13"/>
-      <c r="D435" s="39"/>
+      <c r="D435" s="20">
+        <v>2</v>
+      </c>
       <c r="E435" s="9"/>
-      <c r="F435" s="20">
-        <v>2</v>
-      </c>
+      <c r="F435" s="20"/>
       <c r="G435" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10999,11 +11002,11 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H436" s="39"/>
+      <c r="H436" s="39">
+        <v>3</v>
+      </c>
       <c r="I436" s="9"/>
-      <c r="J436" s="11">
-        <v>3</v>
-      </c>
+      <c r="J436" s="11"/>
       <c r="K436" s="20" t="s">
         <v>178</v>
       </c>
@@ -11012,19 +11015,27 @@
       <c r="A437" s="40">
         <v>45078</v>
       </c>
-      <c r="B437" s="20"/>
-      <c r="C437" s="13"/>
+      <c r="B437" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C437" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D437" s="39"/>
       <c r="E437" s="9"/>
       <c r="F437" s="20"/>
-      <c r="G437" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H437" s="39"/>
+      <c r="G437" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H437" s="39">
+        <v>2</v>
+      </c>
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
-      <c r="K437" s="20"/>
+      <c r="K437" s="20" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
